--- a/tradept/Excel/Localization/english/B兵种单位表_Soldiers_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/B兵种单位表_Soldiers_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0DE601-CA50-489B-A84D-C3313615E8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC758C6-A386-4373-9B70-723DA8B1868E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -219,9 +219,6 @@
     <t>荒沙精英萨满</t>
   </si>
   <si>
-    <t>Elite Akhal Shaman</t>
-  </si>
-  <si>
     <t>荒沙先知</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
     <t>雪岭驯鹰师</t>
   </si>
   <si>
-    <t>Dhib Falconer</t>
-  </si>
-  <si>
     <t>雪岭兽王</t>
   </si>
   <si>
@@ -321,9 +315,6 @@
     <t>蛮牛弓箭手</t>
   </si>
   <si>
-    <t>Thur Archer</t>
-  </si>
-  <si>
     <t>蛮牛神射手</t>
   </si>
   <si>
@@ -702,15 +693,9 @@
     <t>魔狼幼崽</t>
   </si>
   <si>
-    <t>Canis Cub</t>
-  </si>
-  <si>
     <t>魔狼</t>
   </si>
   <si>
-    <t>Canis</t>
-  </si>
-  <si>
     <t>魔狼王</t>
   </si>
   <si>
@@ -756,9 +741,6 @@
     <t>蟒蛇</t>
   </si>
   <si>
-    <t>Python</t>
-  </si>
-  <si>
     <t>巨蟒蛇</t>
   </si>
   <si>
@@ -828,9 +810,6 @@
     <t>冰霜鱼人</t>
   </si>
   <si>
-    <t>Frost Bahar</t>
-  </si>
-  <si>
     <t>冰霜鱼人精英</t>
   </si>
   <si>
@@ -843,18 +822,12 @@
     <t>黄金鱼人精英</t>
   </si>
   <si>
-    <t>Elite Gold Bahar</t>
-  </si>
-  <si>
     <t>岩石鱼人</t>
   </si>
   <si>
     <t>岩石鱼人精英</t>
   </si>
   <si>
-    <t>Elite Stone Bahar</t>
-  </si>
-  <si>
     <t>鱼人战士</t>
   </si>
   <si>
@@ -891,9 +864,6 @@
     <t>兔犬</t>
   </si>
   <si>
-    <t>Arnab</t>
-  </si>
-  <si>
     <t>劣魔</t>
   </si>
   <si>
@@ -981,9 +951,6 @@
     <t>咕噜</t>
   </si>
   <si>
-    <t>Grunt</t>
-  </si>
-  <si>
     <t>咕噜队长</t>
   </si>
   <si>
@@ -1158,9 +1125,6 @@
     <t>贾米拉</t>
   </si>
   <si>
-    <t>Jamilla</t>
-  </si>
-  <si>
     <t>阿古拉</t>
   </si>
   <si>
@@ -1203,898 +1167,934 @@
     <t>Jaina</t>
   </si>
   <si>
-    <t>Cría de veneno</t>
-  </si>
-  <si>
-    <t>Veneno Wyvern</t>
-  </si>
-  <si>
-    <t>Dragón Veneno</t>
-  </si>
-  <si>
-    <t>Dragón de Sable</t>
-  </si>
-  <si>
-    <t>Cría de fuego</t>
-  </si>
-  <si>
-    <t>Wyvern de fuego</t>
-  </si>
-  <si>
-    <t>Dragón de fuego</t>
-  </si>
-  <si>
-    <t>Dragón de llamas</t>
-  </si>
-  <si>
-    <t>Cría de hielo</t>
-  </si>
-  <si>
-    <t>Wyvern de hielo</t>
-  </si>
-  <si>
-    <t>Dragón de hielo</t>
-  </si>
-  <si>
-    <t>Dragón de la Tundra</t>
-  </si>
-  <si>
-    <t>Invocación del Dragón de la Tundra</t>
-  </si>
-  <si>
     <t>Espada Espectral</t>
   </si>
   <si>
-    <t>Dragón Ifrit caído</t>
-  </si>
-  <si>
-    <t>Nuevo Dragón de Fuego</t>
-  </si>
-  <si>
-    <t>Primavera</t>
-  </si>
-  <si>
-    <t>Bahar Mutante</t>
-  </si>
-  <si>
-    <t>Adorador del fuego</t>
-  </si>
-  <si>
-    <t>Sirviente de llamas</t>
-  </si>
-  <si>
-    <t>Esclavo de las llamas</t>
-  </si>
-  <si>
-    <t>Caballero Oscuro</t>
-  </si>
-  <si>
-    <t>Monstruo</t>
-  </si>
-  <si>
-    <t>Lobo Salvaje</t>
-  </si>
-  <si>
-    <t>Halcón</t>
-  </si>
-  <si>
-    <t>Hermano Radiante</t>
-  </si>
-  <si>
-    <t>Hermana Radiante</t>
-  </si>
-  <si>
     <t>Morador de Akhal</t>
   </si>
   <si>
-    <t>Espadachín Akhal</t>
-  </si>
-  <si>
-    <t>Guerrero Akhal</t>
-  </si>
-  <si>
-    <t>Guerrero Akhal de élite</t>
-  </si>
-  <si>
-    <t>Akhal Guerrero de la Tormenta</t>
-  </si>
-  <si>
-    <t>Caballería de camellos Akhal</t>
-  </si>
-  <si>
-    <t>Caballería de élite de camellos Akhal</t>
-  </si>
-  <si>
-    <t>Caballería pesada de camellos Akhal</t>
-  </si>
-  <si>
-    <t>Jinete Akhal</t>
-  </si>
-  <si>
-    <t>Jinete de Akhal Elite</t>
-  </si>
-  <si>
-    <t>Caballería Pesada Akhal</t>
-  </si>
-  <si>
-    <t>Caballería Pesada de Élite Akhal</t>
-  </si>
-  <si>
-    <t>Caballería de Tormenta Akhal</t>
-  </si>
-  <si>
-    <t>Jinete de élite Akhal</t>
-  </si>
-  <si>
-    <t>Akhal Jinete Pesado de Arquería</t>
-  </si>
-  <si>
-    <t>Discípulo del chamán Akhal</t>
-  </si>
-  <si>
-    <t>Akhal Shamán</t>
-  </si>
-  <si>
-    <t>Akhal Profeta</t>
-  </si>
-  <si>
     <t>Clérigo Akhal</t>
   </si>
   <si>
-    <t>Agricultor de Dhib</t>
-  </si>
-  <si>
-    <t>Pastor de Dhib</t>
-  </si>
-  <si>
-    <t>Héroe Dhib</t>
-  </si>
-  <si>
     <t>Soldado Dhib Ashen</t>
   </si>
   <si>
-    <t>Caballero Dhib Ashen</t>
-  </si>
-  <si>
-    <t>Espadachín Dhib Ashen</t>
-  </si>
-  <si>
-    <t>Guerrero Dhib</t>
-  </si>
-  <si>
-    <t>Guerrero Dhib de élite</t>
-  </si>
-  <si>
-    <t>Dhib Maestro de la Espada</t>
-  </si>
-  <si>
-    <t>Espadachín Dhib</t>
-  </si>
-  <si>
-    <t>Cazador de Dhib</t>
-  </si>
-  <si>
-    <t>Seguimiento de Dhib</t>
-  </si>
-  <si>
-    <t>Entrenador de Bestias Elite Dhib</t>
-  </si>
-  <si>
-    <t>Dhib Maestro de Bestias</t>
-  </si>
-  <si>
-    <t>Infantería Pesada de Thur</t>
-  </si>
-  <si>
-    <t>Infantería Blindada de Thur</t>
-  </si>
-  <si>
-    <t>Sargento de élite Thur</t>
-  </si>
-  <si>
-    <t>Thur Belicista</t>
-  </si>
-  <si>
-    <t>Aldeano de Dakn</t>
-  </si>
-  <si>
-    <t>Espía Dakn</t>
-  </si>
-  <si>
-    <t>Asesino Dakn</t>
-  </si>
-  <si>
-    <t>Asesino de élite Dakn</t>
-  </si>
-  <si>
-    <t>Dakn Asesino</t>
-  </si>
-  <si>
-    <t>Dakn Maestro Asesino</t>
-  </si>
-  <si>
     <t>Iniciado Dakn</t>
   </si>
   <si>
-    <t>Sacerdote Dakn</t>
-  </si>
-  <si>
-    <t>Dakn Sumo Sacerdote</t>
-  </si>
-  <si>
-    <t>Anciano Dakn</t>
-  </si>
-  <si>
-    <t>Joven Dakn</t>
-  </si>
-  <si>
     <t>Aprendiz de Alquimia Dakn</t>
   </si>
   <si>
-    <t>El Alquimista Dakn</t>
-  </si>
-  <si>
-    <t>Apóstol Dakn</t>
-  </si>
-  <si>
     <t>Sacerdotisa Dakn</t>
   </si>
   <si>
-    <t>Dakn Suma Sacerdotisa</t>
-  </si>
-  <si>
-    <t>Dakn Viuda Negra</t>
-  </si>
-  <si>
-    <t>Elite Dakn Viuda Negra</t>
-  </si>
-  <si>
-    <t>Nasir Agricultor</t>
-  </si>
-  <si>
-    <t>Milicia de Nasir</t>
-  </si>
-  <si>
-    <t>Arquero Nasir</t>
-  </si>
-  <si>
-    <t>Arquero de élite Nasir</t>
-  </si>
-  <si>
-    <t>Nasir Ace Ballestero</t>
-  </si>
-  <si>
-    <t>Aprendiz de Nasir</t>
-  </si>
-  <si>
-    <t>Nasir Novato Caster</t>
-  </si>
-  <si>
-    <t>Nasir Mago</t>
-  </si>
-  <si>
-    <t>Nasir Alto Mago</t>
-  </si>
-  <si>
-    <t>Nasir, Anciano Místico</t>
-  </si>
-  <si>
-    <t>Nasir Sanador</t>
-  </si>
-  <si>
-    <t>Nasir Clérigo</t>
-  </si>
-  <si>
-    <t>Infantería Nasir</t>
-  </si>
-  <si>
-    <t>Lancero Pesado Nasir</t>
-  </si>
-  <si>
-    <t>Nasir Jinete</t>
-  </si>
-  <si>
-    <t>Caballería Pesada Nasir</t>
-  </si>
-  <si>
-    <t>Caballería de Guardia Nasir</t>
-  </si>
-  <si>
-    <t>Trabajador Ifrit</t>
-  </si>
-  <si>
-    <t>Siervo Ifrit</t>
-  </si>
-  <si>
-    <t>Ifrit Sabio</t>
-  </si>
-  <si>
-    <t>Guerrero Ifrit</t>
-  </si>
-  <si>
-    <t>Guerrero del hacha Ifrit</t>
-  </si>
-  <si>
-    <t>Guerrero de hacha Elite Ifrit</t>
-  </si>
-  <si>
-    <t>Guerrero Carmesí Ifrit</t>
-  </si>
-  <si>
-    <t>Ifrit Noble Carmesí</t>
-  </si>
-  <si>
-    <t>Ifrit Tirador</t>
-  </si>
-  <si>
-    <t>Tirador de élite Ifrit</t>
-  </si>
-  <si>
-    <t>Lanzallamas Ifrit</t>
-  </si>
-  <si>
-    <t>Caballero Ifrit</t>
-  </si>
-  <si>
-    <t>Caballero Ifrit de élite</t>
-  </si>
-  <si>
-    <t>Guardia Maestro del Vacío Ifrit</t>
-  </si>
-  <si>
     <t>Invocador Ifrit</t>
   </si>
   <si>
-    <t>Mago Ifrit</t>
-  </si>
-  <si>
-    <t>Ifrit Alto Mago</t>
-  </si>
-  <si>
-    <t>Brujo Ifrit</t>
-  </si>
-  <si>
-    <t>Invocador de Ifrit</t>
-  </si>
-  <si>
-    <t>Invocador Supremo Ifrit</t>
-  </si>
-  <si>
-    <t>Espadachín mercenario</t>
-  </si>
-  <si>
-    <t>Espadachín Blindado Mercenario</t>
-  </si>
-  <si>
-    <t>Lancero Blindado Mercenario</t>
-  </si>
-  <si>
-    <t>Ballestero mercenario</t>
-  </si>
-  <si>
-    <t>Ballestero acorazado mercenario</t>
-  </si>
-  <si>
-    <t>Explorador mercenario</t>
-  </si>
-  <si>
-    <t>Cazador furtivo de montañas</t>
-  </si>
-  <si>
-    <t>Bandido de la montaña</t>
-  </si>
-  <si>
-    <t>Guerrilla de montaña</t>
-  </si>
-  <si>
-    <t>Guerrero</t>
-  </si>
-  <si>
-    <t>Bruja aprendiz</t>
-  </si>
-  <si>
-    <t>Bruja</t>
-  </si>
-  <si>
-    <t>Chamán</t>
-  </si>
-  <si>
-    <t>Gran Chamán</t>
-  </si>
-  <si>
-    <t>Cazadora</t>
-  </si>
-  <si>
-    <t>Cazador Salvaje</t>
-  </si>
-  <si>
-    <t>Cazador Fantasma</t>
-  </si>
-  <si>
-    <t>Espadachina</t>
-  </si>
-  <si>
-    <t>Guerrero de Plata</t>
-  </si>
-  <si>
-    <t>Ladrón del desierto</t>
-  </si>
-  <si>
-    <t>Bandido del desierto</t>
-  </si>
-  <si>
-    <t>Merodeador del desierto</t>
-  </si>
-  <si>
-    <t>Vagabundo del desierto</t>
-  </si>
-  <si>
-    <t>Asaltante del desierto</t>
-  </si>
-  <si>
-    <t>Rastreador del desierto</t>
-  </si>
-  <si>
-    <t>Discípulo pagano</t>
-  </si>
-  <si>
-    <t>Doncella pagana</t>
-  </si>
-  <si>
-    <t>Asesina pagana</t>
-  </si>
-  <si>
-    <t>Fanático pagano</t>
-  </si>
-  <si>
-    <t>Bruja pagana</t>
-  </si>
-  <si>
-    <t>Bruto salvaje</t>
-  </si>
-  <si>
-    <t>Guerrero salvaje</t>
-  </si>
-  <si>
-    <t>Gigante Salvaje</t>
-  </si>
-  <si>
-    <t>Cachorro de lobo ártico</t>
-  </si>
-  <si>
     <t>Lobo Ártico</t>
   </si>
   <si>
-    <t>Lobo Ártico de élite</t>
-  </si>
-  <si>
     <t>Lobo Alfa Ártico</t>
   </si>
   <si>
-    <t>Cachorro de lobo de Badland</t>
-  </si>
-  <si>
-    <t>Lobo de Badland</t>
-  </si>
-  <si>
-    <t>Lobo de las Tierras Baldías de élite</t>
-  </si>
-  <si>
     <t>Lobo Alfa</t>
   </si>
   <si>
-    <t>Sabueso</t>
-  </si>
-  <si>
-    <t>Perro de guerra</t>
-  </si>
-  <si>
-    <t>Perro de guerra legendario</t>
-  </si>
-  <si>
-    <t>Rey Canis</t>
-  </si>
-  <si>
-    <t>Bisonte</t>
-  </si>
-  <si>
-    <t>Buey</t>
-  </si>
-  <si>
-    <t>Buey legendario</t>
-  </si>
-  <si>
-    <t>Jabalí del Acantilado Umbra</t>
-  </si>
-  <si>
-    <t>Jabalí de élite</t>
-  </si>
-  <si>
-    <t>Gran Rey Jabalí</t>
-  </si>
-  <si>
-    <t>Espíritu de zorro</t>
-  </si>
-  <si>
-    <t>Zorro Mágico</t>
-  </si>
-  <si>
-    <t>Señor Zorro</t>
-  </si>
-  <si>
     <t>Víbora novata</t>
   </si>
   <si>
     <t>Víbora</t>
   </si>
   <si>
-    <t>Rey Víbora</t>
-  </si>
-  <si>
-    <t>Cría de Python</t>
-  </si>
-  <si>
-    <t>Pitón gigante</t>
-  </si>
-  <si>
-    <t>Larva de gusano de arena</t>
-  </si>
-  <si>
-    <t>Gusano de arena</t>
-  </si>
-  <si>
-    <t>Gusano de arena de élite</t>
-  </si>
-  <si>
-    <t>Reina del Gusano de Arena</t>
-  </si>
-  <si>
-    <t>Escorpión</t>
-  </si>
-  <si>
-    <t>Escorpión tóxico</t>
-  </si>
-  <si>
-    <t>Escorpión tóxico gigante</t>
-  </si>
-  <si>
-    <t>Señor Escorpión Tóxico</t>
-  </si>
-  <si>
-    <t>Oso pardo</t>
-  </si>
-  <si>
-    <t>Oso pardo de élite</t>
-  </si>
-  <si>
-    <t>Jefe Oso Marrón</t>
-  </si>
-  <si>
-    <t>Yeti de élite</t>
-  </si>
-  <si>
-    <t>Jefe Yeti</t>
-  </si>
-  <si>
-    <t>Lagarto del desierto</t>
-  </si>
-  <si>
-    <t>Lagarto del Desierto de Élite</t>
-  </si>
-  <si>
-    <t>Rey del Lagarto del Desierto</t>
-  </si>
-  <si>
     <t>Lagarto Venenoso</t>
   </si>
   <si>
-    <t>Lagarto Venenoso de Élite</t>
-  </si>
-  <si>
-    <t>Rey Lagarto Venenoso</t>
-  </si>
-  <si>
-    <t>Oro Bahar</t>
-  </si>
-  <si>
-    <t>Piedra Bahar</t>
-  </si>
-  <si>
-    <t>Guerrero de Bahar</t>
-  </si>
-  <si>
-    <t>Capitán Bahar</t>
-  </si>
-  <si>
-    <t>Bahar Mago</t>
-  </si>
-  <si>
-    <t>Gran Mago Bahar</t>
-  </si>
-  <si>
     <t>Novato</t>
   </si>
   <si>
-    <t>Águila Zephyr</t>
-  </si>
-  <si>
-    <t>Halcón de guerra</t>
-  </si>
-  <si>
-    <t>Rey Halcón de Guerra</t>
-  </si>
-  <si>
-    <t>Gran Águila</t>
-  </si>
-  <si>
-    <t>Gran Rey Águila</t>
-  </si>
-  <si>
-    <t>Demonio menor</t>
-  </si>
-  <si>
-    <t>Demonio</t>
-  </si>
-  <si>
-    <t>Señor Demonio</t>
-  </si>
-  <si>
-    <t>Pollo Fénix</t>
-  </si>
-  <si>
     <t>Fénix</t>
   </si>
   <si>
-    <t>Rey Fénix</t>
-  </si>
-  <si>
-    <t>Bruja de Naga</t>
-  </si>
-  <si>
     <t>Santo Naga</t>
   </si>
   <si>
-    <t>Vanguardia de Hombre Lagarto</t>
-  </si>
-  <si>
-    <t>Guerrero Hombre Lagarto</t>
-  </si>
-  <si>
-    <t>Rey Lagarto</t>
-  </si>
-  <si>
     <t>Arbóreo</t>
   </si>
   <si>
-    <t>Anciano arbóreo</t>
-  </si>
-  <si>
     <t>Gigante de Granito</t>
   </si>
   <si>
     <t>Centauro</t>
   </si>
   <si>
-    <t>Guerrero centauro</t>
-  </si>
-  <si>
-    <t>Vanguardia Centauro</t>
-  </si>
-  <si>
     <t>Gigante</t>
   </si>
   <si>
-    <t>Guerrero Gigante</t>
-  </si>
-  <si>
-    <t>Guardia Gigante</t>
-  </si>
-  <si>
-    <t>Gigante Wisp</t>
-  </si>
-  <si>
     <t>Mago Gigante</t>
   </si>
   <si>
-    <t>Hechicera Gigante</t>
-  </si>
-  <si>
-    <t>Capitán Grunt</t>
-  </si>
-  <si>
-    <t>Líder de Grunt</t>
-  </si>
-  <si>
-    <t>Hada</t>
-  </si>
-  <si>
-    <t>Banshee Maldita</t>
-  </si>
-  <si>
-    <t>Reina maldita</t>
-  </si>
-  <si>
     <t>Banshee Venenosa</t>
   </si>
   <si>
-    <t>Reina Veneno</t>
-  </si>
-  <si>
-    <t>Banshee del terror</t>
-  </si>
-  <si>
-    <t>Reina del Terror</t>
-  </si>
-  <si>
-    <t>Dríada</t>
-  </si>
-  <si>
-    <t>Dríada de las flores</t>
-  </si>
-  <si>
-    <t>Bruja Dríada</t>
-  </si>
-  <si>
-    <t>Tirador de Dríadas</t>
-  </si>
-  <si>
-    <t>Ranger Dríada</t>
-  </si>
-  <si>
-    <t>Elemental maldito</t>
-  </si>
-  <si>
-    <t>Espíritu maldito</t>
-  </si>
-  <si>
-    <t>Marioneta</t>
-  </si>
-  <si>
-    <t>Títere de piedra</t>
-  </si>
-  <si>
-    <t>Maestro de títeres de piedra</t>
-  </si>
-  <si>
-    <t>Marioneta de escarcha</t>
-  </si>
-  <si>
-    <t>Maestro de títeres de escarcha</t>
-  </si>
-  <si>
-    <t>Marioneta de runa</t>
-  </si>
-  <si>
-    <t>Maestro de títeres de runas</t>
-  </si>
-  <si>
-    <t>Marioneta de fuego</t>
-  </si>
-  <si>
-    <t>Maestro de títeres de fuego</t>
-  </si>
-  <si>
     <t>Leopardo</t>
   </si>
   <si>
-    <t>Guepardo</t>
-  </si>
-  <si>
-    <t>Cheetah feroz</t>
-  </si>
-  <si>
-    <t>Cazador de recompensas novato</t>
-  </si>
-  <si>
-    <t>Cazador de recompensas aficionado</t>
-  </si>
-  <si>
-    <t>Cazador de recompensas</t>
-  </si>
-  <si>
-    <t>Cazador de recompensas senior</t>
-  </si>
-  <si>
-    <t>Capitán cazador de recompensas</t>
-  </si>
-  <si>
-    <t>Cazador de recompensas legendario</t>
-  </si>
-  <si>
-    <t>Camello salvaje</t>
-  </si>
-  <si>
-    <t>Polo de entrenamiento</t>
-  </si>
-  <si>
-    <t>Barrera de madera</t>
-  </si>
-  <si>
-    <t>Pesadilla</t>
-  </si>
-  <si>
     <t>Sombra</t>
   </si>
   <si>
     <t>Sombra Malévola</t>
   </si>
   <si>
-    <t>Gnomo de piedra</t>
-  </si>
-  <si>
-    <t>Torreta</t>
-  </si>
-  <si>
     <t>Mendigo</t>
   </si>
   <si>
-    <t>Agricultor de palmas</t>
-  </si>
-  <si>
-    <t>Ballesta</t>
-  </si>
-  <si>
-    <t>Ballesta aumentada</t>
-  </si>
-  <si>
-    <t>Araña tóxica</t>
-  </si>
-  <si>
-    <t>Araña de Sangre</t>
-  </si>
-  <si>
     <t>Fantasma</t>
   </si>
   <si>
-    <t>Marioneta Psíquica</t>
-  </si>
-  <si>
-    <t>Embaucador Akhal</t>
-  </si>
-  <si>
-    <t>Jinete Arquero Akhal</t>
-  </si>
-  <si>
-    <t>El plebeyo Thur</t>
-  </si>
-  <si>
-    <t>Luchador de Thur</t>
-  </si>
-  <si>
-    <t>Thur Berserker</t>
-  </si>
-  <si>
-    <t>Lancero de Elite Nasir</t>
-  </si>
-  <si>
-    <t>Nasir Lancero</t>
-  </si>
-  <si>
     <t>Nasir Galante</t>
   </si>
   <si>
     <t>Nasir Pesado Galante</t>
   </si>
   <si>
-    <t>El héroe de los Toros</t>
-  </si>
-  <si>
-    <t>Guerrero del Toros</t>
-  </si>
-  <si>
-    <t>Ladrón armado del Toros</t>
-  </si>
-  <si>
-    <t>El cazador del Toros</t>
-  </si>
-  <si>
-    <t>Tirador de Toros</t>
-  </si>
-  <si>
-    <t>El Tirador Blindado del Toros</t>
-  </si>
-  <si>
-    <t>El Merodeador del Toros</t>
+    <t>Filhote de veneno</t>
+  </si>
+  <si>
+    <t>Wyvern Venenoso</t>
+  </si>
+  <si>
+    <t>Dragão venenoso</t>
+  </si>
+  <si>
+    <t>Dragão Negro</t>
+  </si>
+  <si>
+    <t>Filhote de Fogo</t>
+  </si>
+  <si>
+    <t>Wyvern de Fogo</t>
+  </si>
+  <si>
+    <t>Dragão de fogo</t>
+  </si>
+  <si>
+    <t>Dragão de chamas</t>
+  </si>
+  <si>
+    <t>Filhote de gelo</t>
+  </si>
+  <si>
+    <t>Wyvern de Gelo</t>
+  </si>
+  <si>
+    <t>Dragão de Gelo</t>
+  </si>
+  <si>
+    <t>Dragão Tundra</t>
+  </si>
+  <si>
+    <t>Invocação do Dragão Tundra</t>
+  </si>
+  <si>
+    <t>Dragão Ifrit Caído</t>
+  </si>
+  <si>
+    <t>Novo Dragão de Fogo</t>
+  </si>
+  <si>
+    <t>Bahar</t>
+  </si>
+  <si>
+    <t>Mutante Bahar</t>
+  </si>
+  <si>
+    <t>Adorador da Chama</t>
+  </si>
+  <si>
+    <t>Servo da Chama</t>
+  </si>
+  <si>
+    <t>Lacaio das Chamas</t>
+  </si>
+  <si>
+    <t>Cavaleiro das Trevas</t>
+  </si>
+  <si>
+    <t>Monstro</t>
+  </si>
+  <si>
+    <t>Lobo selvagem</t>
+  </si>
+  <si>
+    <t>Falcão</t>
+  </si>
+  <si>
+    <t>Irmão Radiante</t>
+  </si>
+  <si>
+    <t>Irmã Radiante</t>
+  </si>
+  <si>
+    <t>Espadachim Akhal</t>
+  </si>
+  <si>
+    <t>Guerreiro Akhal</t>
+  </si>
+  <si>
+    <t>Guerreiro Akhal de Elite</t>
+  </si>
+  <si>
+    <t>Guerreiro da Tempestade Akhal</t>
+  </si>
+  <si>
+    <t>Cavalaria de Camelos Akhal</t>
+  </si>
+  <si>
+    <t>Cavalaria de Camelos de Elite Akhal</t>
+  </si>
+  <si>
+    <t>Cavalaria Pesada de Camelos Akhal</t>
+  </si>
+  <si>
+    <t>Malandro Akhal</t>
+  </si>
+  <si>
+    <t>Cavaleiro Akhal</t>
+  </si>
+  <si>
+    <t>Cavaleiro de Elite Akhal</t>
+  </si>
+  <si>
+    <t>Cavalaria Pesada Akhal</t>
+  </si>
+  <si>
+    <t>Cavalaria Pesada de Elite Akhal</t>
+  </si>
+  <si>
+    <t>Cavalaria de Tempestade Akhal</t>
+  </si>
+  <si>
+    <t>Arquivador Akhal</t>
+  </si>
+  <si>
+    <t>Arqueiro de Elite Akhal</t>
+  </si>
+  <si>
+    <t>Akhal Arqueiro Pesado</t>
+  </si>
+  <si>
+    <t>Discípulo Xamã Akhal</t>
+  </si>
+  <si>
+    <t>Xamã Akhal</t>
+  </si>
+  <si>
+    <t>Xamã Akhal de Elite</t>
+  </si>
+  <si>
+    <t>Profeta Akhal</t>
+  </si>
+  <si>
+    <t>Agricultor Dhib</t>
+  </si>
+  <si>
+    <t>Pastor Dhib</t>
+  </si>
+  <si>
+    <t>Herói Dhib</t>
+  </si>
+  <si>
+    <t>Dhib Cavaleiro Ashen</t>
+  </si>
+  <si>
+    <t>Espadachim Dhib Ashen</t>
+  </si>
+  <si>
+    <t>Guerreiro Dhib</t>
+  </si>
+  <si>
+    <t>Guerreiro de Elite Dhib</t>
+  </si>
+  <si>
+    <t>Mestre Espadachim Dhib</t>
+  </si>
+  <si>
+    <t>Espadachim Dhib</t>
+  </si>
+  <si>
+    <t>Caçador de Dhib</t>
+  </si>
+  <si>
+    <t>Rastreador Dhib</t>
+  </si>
+  <si>
+    <t>Treinador de Bestas Elite Dhib</t>
+  </si>
+  <si>
+    <t>Falcoeiro Dhib</t>
+  </si>
+  <si>
+    <t>Mestre das Feras Dhib</t>
+  </si>
+  <si>
+    <t>Qui Plebeu</t>
+  </si>
+  <si>
+    <t>Qui herói</t>
+  </si>
+  <si>
+    <t>Qui Guerreiro</t>
+  </si>
+  <si>
+    <t>Qui Escaramuçador</t>
+  </si>
+  <si>
+    <t>Qui Infantaria Pesada</t>
+  </si>
+  <si>
+    <t>Infantaria Blindada de Qui</t>
+  </si>
+  <si>
+    <t>Sargento de Elite Thur</t>
+  </si>
+  <si>
+    <t>Thur Saqueador</t>
+  </si>
+  <si>
+    <t>Thur Saqueador Armado</t>
+  </si>
+  <si>
+    <t>Qui Berserker</t>
+  </si>
+  <si>
+    <t>Quinta-feira belicista</t>
+  </si>
+  <si>
+    <t>Qui Caçador</t>
+  </si>
+  <si>
+    <t>Qui Arqueiro</t>
+  </si>
+  <si>
+    <t>Qui atirador</t>
+  </si>
+  <si>
+    <t>Thur Atirador Blindado</t>
+  </si>
+  <si>
+    <t>Aldeão Dakn</t>
+  </si>
+  <si>
+    <t>Espião Maldito</t>
+  </si>
+  <si>
+    <t>Assassino Maldito</t>
+  </si>
+  <si>
+    <t>Assassino Elite Dakn</t>
+  </si>
+  <si>
+    <t>Mestre Assassino Dakn</t>
+  </si>
+  <si>
+    <t>Sacerdote Maldito</t>
+  </si>
+  <si>
+    <t>Sumo Sacerdote Dakn</t>
+  </si>
+  <si>
+    <t>Ancião Dakn</t>
+  </si>
+  <si>
+    <t>Jovem Dakn</t>
+  </si>
+  <si>
+    <t>Alquimista Dakn</t>
+  </si>
+  <si>
+    <t>Apóstolo Dakn</t>
+  </si>
+  <si>
+    <t>Alta Sacerdotisa Dakn</t>
+  </si>
+  <si>
+    <t>Viúva Negra Maldita</t>
+  </si>
+  <si>
+    <t>Elite Dakn Viúva Negra</t>
+  </si>
+  <si>
+    <t>Fazendeiro Nasir</t>
+  </si>
+  <si>
+    <t>Milícia Nasir</t>
+  </si>
+  <si>
+    <t>Nasir Besteiro</t>
+  </si>
+  <si>
+    <t>Besteiro de Elite Nasir</t>
+  </si>
+  <si>
+    <t>Nasir Ace Besteiro</t>
+  </si>
+  <si>
+    <t>Aprendiz Nasir</t>
+  </si>
+  <si>
+    <t>Nasir Conjurador Novato</t>
+  </si>
+  <si>
+    <t>Mago Nasir</t>
+  </si>
+  <si>
+    <t>Alto Mago Nasir</t>
+  </si>
+  <si>
+    <t>Ancião Místico Nasir</t>
+  </si>
+  <si>
+    <t>Curandeiro Nasir</t>
+  </si>
+  <si>
+    <t>Clérigo Nasir</t>
+  </si>
+  <si>
+    <t>Infantaria Nasir</t>
+  </si>
+  <si>
+    <t>Elite Nasir Lanceiro</t>
+  </si>
+  <si>
+    <t>Nasir Lanceiro Pesado</t>
+  </si>
+  <si>
+    <t>Nasir Lanceiro</t>
+  </si>
+  <si>
+    <t>Cavaleiro Nasir</t>
+  </si>
+  <si>
+    <t>Cavalaria Pesada Nasir</t>
+  </si>
+  <si>
+    <t>Cavalaria da Guarda Nasir</t>
+  </si>
+  <si>
+    <t>Trabalhador Ifrit</t>
+  </si>
+  <si>
+    <t>Servo Ifrit</t>
+  </si>
+  <si>
+    <t>Ifrit Sábio</t>
+  </si>
+  <si>
+    <t>Guerreiro Ifrit</t>
+  </si>
+  <si>
+    <t>Guerreiro Ifrit Machado</t>
+  </si>
+  <si>
+    <t>Guerreiro de Elite Ifrit com Machado</t>
+  </si>
+  <si>
+    <t>Guerreiro Ifrit Carmesim</t>
+  </si>
+  <si>
+    <t>Ifrit Carmesim Nobre</t>
+  </si>
+  <si>
+    <t>Atirador Ifrit</t>
+  </si>
+  <si>
+    <t>Atirador de Elite Ifrit</t>
+  </si>
+  <si>
+    <t>Ifrit Cospe-chamas</t>
+  </si>
+  <si>
+    <t>Cavaleiro Ifrit</t>
+  </si>
+  <si>
+    <t>Cavaleiro Ifrit de Elite</t>
+  </si>
+  <si>
+    <t>Guarda Mestre do Vazio Ifrit</t>
+  </si>
+  <si>
+    <t>Conjurador Ifrit</t>
+  </si>
+  <si>
+    <t>Assistente Ifrit</t>
+  </si>
+  <si>
+    <t>Mago Alto Ifrit</t>
+  </si>
+  <si>
+    <t>Bruxo Ifrit</t>
+  </si>
+  <si>
+    <t>Alto Invocador Ifrit</t>
+  </si>
+  <si>
+    <t>Espadachim Mercenário</t>
+  </si>
+  <si>
+    <t>Espadachim Blindado Mercenário</t>
+  </si>
+  <si>
+    <t>Piqueiro Blindado Mercenário</t>
+  </si>
+  <si>
+    <t>Besteiro Mercenário</t>
+  </si>
+  <si>
+    <t>Besteiro Blindado Mercenário</t>
+  </si>
+  <si>
+    <t>Escoteiro Mercenário</t>
+  </si>
+  <si>
+    <t>Caçador furtivo de montanha</t>
+  </si>
+  <si>
+    <t>Bandido da Montanha</t>
+  </si>
+  <si>
+    <t>Bandido da montanha</t>
+  </si>
+  <si>
+    <t>Guerrilha da Montanha</t>
+  </si>
+  <si>
+    <t>Guerreiro</t>
+  </si>
+  <si>
+    <t>Aprendiz de Bruxa</t>
+  </si>
+  <si>
+    <t>Bruxa</t>
+  </si>
+  <si>
+    <t>Xamã</t>
+  </si>
+  <si>
+    <t>Alto Xamã</t>
+  </si>
+  <si>
+    <t>Caçadora</t>
+  </si>
+  <si>
+    <t>Caçador Selvagem</t>
+  </si>
+  <si>
+    <t>Caçador Fantasma</t>
+  </si>
+  <si>
+    <t>Espadachim</t>
+  </si>
+  <si>
+    <t>Guerreiro Prateado</t>
+  </si>
+  <si>
+    <t>Ladrão do Deserto</t>
+  </si>
+  <si>
+    <t>Bandido do Deserto</t>
+  </si>
+  <si>
+    <t>Saqueador do Deserto</t>
+  </si>
+  <si>
+    <t>Andarilho do Deserto</t>
+  </si>
+  <si>
+    <t>Invasor do Deserto</t>
+  </si>
+  <si>
+    <t>Rastreador do Deserto</t>
+  </si>
+  <si>
+    <t>Discípulo pagão</t>
+  </si>
+  <si>
+    <t>Empregada pagã</t>
+  </si>
+  <si>
+    <t>Assassina pagã</t>
+  </si>
+  <si>
+    <t>Fanático pagão</t>
+  </si>
+  <si>
+    <t>Bruxa pagã</t>
+  </si>
+  <si>
+    <t>Selvagem</t>
+  </si>
+  <si>
+    <t>Guerreiro Selvagem</t>
+  </si>
+  <si>
+    <t>Gigante Selvagem</t>
+  </si>
+  <si>
+    <t>Filhote de Lobo Ártico</t>
+  </si>
+  <si>
+    <t>Lobo Ártico de Elite</t>
+  </si>
+  <si>
+    <t>Filhote de lobo de Badland</t>
+  </si>
+  <si>
+    <t>Lobo do Badland</t>
+  </si>
+  <si>
+    <t>Lobo de Elite do Badland</t>
+  </si>
+  <si>
+    <t>Cão</t>
+  </si>
+  <si>
+    <t>Cão de guerra</t>
+  </si>
+  <si>
+    <t>Cão de Guerra Lendário</t>
+  </si>
+  <si>
+    <t>Filhote de canis</t>
+  </si>
+  <si>
+    <t>Canino</t>
+  </si>
+  <si>
+    <t>Canis Rei</t>
+  </si>
+  <si>
+    <t>Búfalo</t>
+  </si>
+  <si>
+    <t>Boi</t>
+  </si>
+  <si>
+    <t>Boi Lendário</t>
+  </si>
+  <si>
+    <t>Javali do Penhasco Umbra</t>
+  </si>
+  <si>
+    <t>Javali de Elite</t>
+  </si>
+  <si>
+    <t>Grande Rei Javali</t>
+  </si>
+  <si>
+    <t>Espírito de Raposa</t>
+  </si>
+  <si>
+    <t>Raposa Mágica</t>
+  </si>
+  <si>
+    <t>Senhor da Raposa</t>
+  </si>
+  <si>
+    <t>Rei Víbora</t>
+  </si>
+  <si>
+    <t>Filhote de Python</t>
+  </si>
+  <si>
+    <t>Pitão</t>
+  </si>
+  <si>
+    <t>Píton Gigante</t>
+  </si>
+  <si>
+    <t>Larva do verme da areia</t>
+  </si>
+  <si>
+    <t>Verme da areia</t>
+  </si>
+  <si>
+    <t>Verme da areia de elite</t>
+  </si>
+  <si>
+    <t>Rainha do Verme da Areia</t>
+  </si>
+  <si>
+    <t>Escorpião</t>
+  </si>
+  <si>
+    <t>Escorpião Tóxico</t>
+  </si>
+  <si>
+    <t>Escorpião Tóxico Gigante</t>
+  </si>
+  <si>
+    <t>Senhor Escorpião Tóxico</t>
+  </si>
+  <si>
+    <t>Urso marrom</t>
+  </si>
+  <si>
+    <t>Urso Marrom Elite</t>
+  </si>
+  <si>
+    <t>Chefe Urso Pardo</t>
+  </si>
+  <si>
+    <t>Elite Yeti</t>
+  </si>
+  <si>
+    <t>Chefe Yeti</t>
+  </si>
+  <si>
+    <t>Lagarto do Deserto</t>
+  </si>
+  <si>
+    <t>Lagarto de Elite do Deserto</t>
+  </si>
+  <si>
+    <t>Rei Lagarto do Deserto</t>
+  </si>
+  <si>
+    <t>Lagarto Venenoso de Elite</t>
+  </si>
+  <si>
+    <t>Rei Lagarto Venenoso</t>
+  </si>
+  <si>
+    <t>Gelo Bahar</t>
+  </si>
+  <si>
+    <t>Ouro Bahar</t>
+  </si>
+  <si>
+    <t>Elite Ouro Bahar</t>
+  </si>
+  <si>
+    <t>Pedra Bahar</t>
+  </si>
+  <si>
+    <t>Elite Pedra Bahar</t>
+  </si>
+  <si>
+    <t>Guerreiro Bahar</t>
+  </si>
+  <si>
+    <t>Capitão Bahar</t>
+  </si>
+  <si>
+    <t>Mago Bahar</t>
+  </si>
+  <si>
+    <t>Grande Mago Bahar</t>
+  </si>
+  <si>
+    <t>Águia Zéfiro</t>
+  </si>
+  <si>
+    <t>Falcão de Guerra</t>
+  </si>
+  <si>
+    <t>Rei Falcão de Guerra</t>
+  </si>
+  <si>
+    <t>Grande Águia</t>
+  </si>
+  <si>
+    <t>Grande Rei Águia</t>
+  </si>
+  <si>
+    <t>Arnabe</t>
+  </si>
+  <si>
+    <t>Demônio Inferior</t>
+  </si>
+  <si>
+    <t>Demônio</t>
+  </si>
+  <si>
+    <t>Lorde Demônio</t>
+  </si>
+  <si>
+    <t>Garota Fênix</t>
+  </si>
+  <si>
+    <t>Rei Fênix</t>
+  </si>
+  <si>
+    <t>Bruxa Naga</t>
+  </si>
+  <si>
+    <t>Vanguarda do Homem Lagarto</t>
+  </si>
+  <si>
+    <t>Guerreiro Homem Lagarto</t>
+  </si>
+  <si>
+    <t>Rei Homem Lagarto</t>
+  </si>
+  <si>
+    <t>Ancião Arbóreo</t>
+  </si>
+  <si>
+    <t>Guerreiro Centauro</t>
+  </si>
+  <si>
+    <t>Vanguarda Centauro</t>
+  </si>
+  <si>
+    <t>Guerreiro Gigante</t>
+  </si>
+  <si>
+    <t>Guarda Gigante</t>
+  </si>
+  <si>
+    <t>Fogo-fátuo Gigante</t>
+  </si>
+  <si>
+    <t>Feiticeira Gigante</t>
+  </si>
+  <si>
+    <t>Grunhido</t>
+  </si>
+  <si>
+    <t>Capitão Grunhido</t>
+  </si>
+  <si>
+    <t>Líder Grunhido</t>
+  </si>
+  <si>
+    <t>Fada</t>
+  </si>
+  <si>
+    <t>Banshee Amaldiçoada</t>
+  </si>
+  <si>
+    <t>Rainha Amaldiçoada</t>
+  </si>
+  <si>
+    <t>Rainha Veneno</t>
+  </si>
+  <si>
+    <t>Terror Banshee</t>
+  </si>
+  <si>
+    <t>Rainha do Terror</t>
+  </si>
+  <si>
+    <t>Dríade</t>
+  </si>
+  <si>
+    <t>Dríade de Flores</t>
+  </si>
+  <si>
+    <t>Bruxa Dríade</t>
+  </si>
+  <si>
+    <t>Atirador Dríade</t>
+  </si>
+  <si>
+    <t>Dríade Ranger</t>
+  </si>
+  <si>
+    <t>Elemental Azarado</t>
+  </si>
+  <si>
+    <t>Espírito Azarado</t>
+  </si>
+  <si>
+    <t>Fantoche</t>
+  </si>
+  <si>
+    <t>Fantoche de Pedra</t>
+  </si>
+  <si>
+    <t>Mestre de Marionetes de Pedra</t>
+  </si>
+  <si>
+    <t>Fantoche de Gelo</t>
+  </si>
+  <si>
+    <t>Mestre dos Fantoches de Gelo</t>
+  </si>
+  <si>
+    <t>Marionete Rúnica</t>
+  </si>
+  <si>
+    <t>Mestre de Marionetes Rúnicas</t>
+  </si>
+  <si>
+    <t>Fantoche de Chama</t>
+  </si>
+  <si>
+    <t>Mestre das Marionetes de Chama</t>
+  </si>
+  <si>
+    <t>guepardo</t>
+  </si>
+  <si>
+    <t>Chita Terrível</t>
+  </si>
+  <si>
+    <t>Caçador de recompensas novato</t>
+  </si>
+  <si>
+    <t>Caçador de recompensas amador</t>
+  </si>
+  <si>
+    <t>Caçador de Recompensa</t>
+  </si>
+  <si>
+    <t>Caçador de recompensas sênior</t>
+  </si>
+  <si>
+    <t>Capitão Caçador de Recompensas</t>
+  </si>
+  <si>
+    <t>Caçador de recompensas lendário</t>
+  </si>
+  <si>
+    <t>Camelo Selvagem</t>
+  </si>
+  <si>
+    <t>Pólo de treinamento</t>
+  </si>
+  <si>
+    <t>Barreira de madeira</t>
+  </si>
+  <si>
+    <t>Pesadelo</t>
+  </si>
+  <si>
+    <t>Gnomo de Pedra</t>
+  </si>
+  <si>
+    <t>Torre</t>
+  </si>
+  <si>
+    <t>Agricultor de palma</t>
+  </si>
+  <si>
+    <t>Besta</t>
+  </si>
+  <si>
+    <t>Besta Aumentada</t>
+  </si>
+  <si>
+    <t>Aranha tóxica</t>
+  </si>
+  <si>
+    <t>Aranha de Sangue</t>
+  </si>
+  <si>
+    <t>Jamila</t>
+  </si>
+  <si>
+    <t>Fantoche Psíquico</t>
   </si>
 </sst>
 </file>
@@ -2181,7 +2181,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2479,11 +2479,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C335"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60">
       <c r="A1" s="1" t="s">
@@ -2504,7 +2507,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2515,7 +2518,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2526,7 +2529,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30">
@@ -2537,7 +2540,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2548,7 +2551,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2559,7 +2562,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2570,7 +2573,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
@@ -2581,7 +2584,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2592,7 +2595,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2603,7 +2606,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2614,7 +2617,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30">
@@ -2625,7 +2628,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30">
@@ -2636,7 +2639,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30">
@@ -2647,7 +2650,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30">
@@ -2658,7 +2661,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2669,7 +2672,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2680,7 +2683,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30">
@@ -2691,7 +2694,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30">
@@ -2702,7 +2705,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="45">
@@ -2713,7 +2716,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45">
@@ -2724,7 +2727,7 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45">
@@ -2735,7 +2738,7 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30">
@@ -2746,7 +2749,7 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="45">
@@ -2768,7 +2771,7 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30">
@@ -2779,7 +2782,7 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="45">
@@ -2790,7 +2793,7 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="45">
@@ -2801,7 +2804,7 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30">
@@ -2812,7 +2815,7 @@
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>417</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30">
@@ -2823,7 +2826,7 @@
         <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30">
@@ -2834,7 +2837,7 @@
         <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30">
@@ -2845,7 +2848,7 @@
         <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30">
@@ -2856,7 +2859,7 @@
         <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30">
@@ -2867,7 +2870,7 @@
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="45">
@@ -2878,7 +2881,7 @@
         <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="45">
@@ -2889,7 +2892,7 @@
         <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30">
@@ -2900,7 +2903,7 @@
         <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>672</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30">
@@ -2911,7 +2914,7 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30">
@@ -2922,7 +2925,7 @@
         <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30">
@@ -2933,7 +2936,7 @@
         <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45">
@@ -2944,7 +2947,7 @@
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30">
@@ -2955,7 +2958,7 @@
         <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30">
@@ -2966,7 +2969,7 @@
         <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>673</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30">
@@ -2977,7 +2980,7 @@
         <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30">
@@ -2988,7 +2991,7 @@
         <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30">
@@ -2999,7 +3002,7 @@
         <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30">
@@ -3010,7 +3013,7 @@
         <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="30">
@@ -3021,1998 +3024,1998 @@
         <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="30">
       <c r="A50" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="30">
       <c r="A51" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>435</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="30">
       <c r="A52" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="30">
       <c r="A53" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="30">
       <c r="A54" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="30">
       <c r="A55" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="30">
       <c r="A56" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="45">
       <c r="A57" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="30">
       <c r="A58" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="30">
       <c r="A59" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="30">
       <c r="A60" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="30">
       <c r="A61" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="30">
       <c r="A62" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="30">
       <c r="A63" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30">
       <c r="A64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" t="s">
         <v>77</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="45">
       <c r="A65" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="30">
       <c r="A66" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="30">
       <c r="A67" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="30">
       <c r="A68" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>674</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="30">
       <c r="A69" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>681</v>
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="30">
       <c r="A70" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>682</v>
+        <v>470</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="30">
       <c r="A71" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>675</v>
+        <v>471</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="30">
       <c r="A72" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="30">
       <c r="A73" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>451</v>
+        <v>473</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="45">
       <c r="A74" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="30">
       <c r="A75" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>687</v>
+        <v>475</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="45">
       <c r="A76" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>683</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="30">
       <c r="A77" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>676</v>
+        <v>477</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30">
       <c r="A78" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="30">
       <c r="A79" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>684</v>
+        <v>479</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="30">
       <c r="A80" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>96</v>
+        <v>480</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="30">
       <c r="A81" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>685</v>
+        <v>481</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="45">
       <c r="A82" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>686</v>
+        <v>482</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="30">
       <c r="A83" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="30">
       <c r="A84" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C84" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="30">
       <c r="A85" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="30">
       <c r="A86" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="30">
       <c r="A87" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="30">
       <c r="A88" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C88" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="30">
       <c r="A89" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C89" t="s">
-        <v>460</v>
+        <v>382</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="30">
       <c r="A90" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="30">
       <c r="A91" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="30">
       <c r="A92" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C92" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="30">
       <c r="A93" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="45">
       <c r="A94" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C94" t="s">
-        <v>465</v>
+        <v>383</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="30">
       <c r="A95" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C95" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="30">
       <c r="A96" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C96" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="30">
       <c r="A97" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C97" t="s">
-        <v>468</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="45">
       <c r="A98" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C98" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="30">
       <c r="A99" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C99" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="45">
       <c r="A100" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C100" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="30">
       <c r="A101" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C101" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="30">
       <c r="A102" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C102" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="30">
       <c r="A103" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C103" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="30">
       <c r="A104" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C104" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="30">
       <c r="A105" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C105" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="30">
       <c r="A106" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C106" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="45">
       <c r="A107" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C107" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="30">
       <c r="A108" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C108" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="30">
       <c r="A109" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C109" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="30">
       <c r="A110" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C110" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="30">
       <c r="A111" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C111" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="30">
       <c r="A112" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C112" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="30">
       <c r="A113" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C113" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="30">
       <c r="A114" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C114" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="30">
       <c r="A115" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C115" t="s">
-        <v>677</v>
+        <v>510</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="30">
       <c r="A116" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C116" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="30">
       <c r="A117" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C117" t="s">
-        <v>678</v>
+        <v>512</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="30">
       <c r="A118" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C118" t="s">
-        <v>679</v>
+        <v>406</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="30">
       <c r="A119" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C119" t="s">
-        <v>680</v>
+        <v>407</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="30">
       <c r="A120" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C120" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="30">
       <c r="A121" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C121" t="s">
-        <v>487</v>
+        <v>514</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="30">
       <c r="A122" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C122" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="30">
       <c r="A123" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C123" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="30">
       <c r="A124" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C124" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="30">
       <c r="A125" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C125" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="30">
       <c r="A126" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C126" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="30">
       <c r="A127" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C127" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="30">
       <c r="A128" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C128" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="45">
       <c r="A129" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C129" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="30">
       <c r="A130" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C130" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="30">
       <c r="A131" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C131" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="30">
       <c r="A132" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C132" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="30">
       <c r="A133" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C133" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="30">
       <c r="A134" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C134" t="s">
-        <v>499</v>
+        <v>526</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="30">
       <c r="A135" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C135" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="30">
       <c r="A136" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C136" t="s">
-        <v>501</v>
+        <v>528</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="30">
       <c r="A137" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C137" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="60">
       <c r="A138" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C138" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="30">
       <c r="A139" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C139" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="30">
       <c r="A140" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C140" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="30">
       <c r="A141" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C141" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="30">
       <c r="A142" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C142" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="45">
       <c r="A143" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C143" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="30">
       <c r="A144" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C144" t="s">
-        <v>507</v>
+        <v>385</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="45">
       <c r="A145" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C145" t="s">
-        <v>508</v>
+        <v>534</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="30">
       <c r="A146" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C146" t="s">
-        <v>509</v>
+        <v>535</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="30">
       <c r="A147" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C147" t="s">
-        <v>510</v>
+        <v>536</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="30">
       <c r="A148" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C148" t="s">
-        <v>511</v>
+        <v>537</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="30">
       <c r="A149" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C149" t="s">
-        <v>512</v>
+        <v>538</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="30">
       <c r="A150" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C150" t="s">
-        <v>513</v>
+        <v>539</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="30">
       <c r="A151" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C151" t="s">
-        <v>514</v>
+        <v>540</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="30">
       <c r="A152" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C152" t="s">
-        <v>515</v>
+        <v>541</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="30">
       <c r="A153" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C153" t="s">
-        <v>516</v>
+        <v>542</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="30">
       <c r="A154" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C154" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="30">
       <c r="A155" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C155" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="30">
       <c r="A156" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C156" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C157" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="30">
       <c r="A158" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C158" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="30">
       <c r="A159" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C159" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C160" t="s">
-        <v>520</v>
+        <v>547</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="30">
       <c r="A161" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C161" t="s">
-        <v>521</v>
+        <v>548</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="30">
       <c r="A162" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C162" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C163" t="s">
-        <v>523</v>
+        <v>550</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="30">
       <c r="A164" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C164" t="s">
-        <v>524</v>
+        <v>551</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="30">
       <c r="A165" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C165" t="s">
-        <v>525</v>
+        <v>552</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C166" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="30">
       <c r="A167" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C167" t="s">
-        <v>527</v>
+        <v>554</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="30">
       <c r="A168" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C168" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="30">
       <c r="A169" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C169" t="s">
-        <v>529</v>
+        <v>556</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="30">
       <c r="A170" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C170" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="30">
       <c r="A171" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C171" t="s">
-        <v>531</v>
+        <v>558</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="30">
       <c r="A172" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C172" t="s">
-        <v>532</v>
+        <v>559</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="30">
       <c r="A173" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C173" t="s">
-        <v>533</v>
+        <v>560</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="30">
       <c r="A174" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C174" t="s">
-        <v>534</v>
+        <v>561</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="30">
       <c r="A175" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C175" t="s">
-        <v>535</v>
+        <v>562</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="30">
       <c r="A176" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C176" t="s">
-        <v>536</v>
+        <v>563</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="30">
       <c r="A177" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C177" t="s">
-        <v>537</v>
+        <v>564</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="30">
       <c r="A178" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C178" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="30">
       <c r="A179" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C179" t="s">
-        <v>539</v>
+        <v>566</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="30">
       <c r="A180" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C180" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="30">
       <c r="A181" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C181" t="s">
-        <v>541</v>
+        <v>568</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="30">
       <c r="A182" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C182" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C183" t="s">
-        <v>543</v>
+        <v>386</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="30">
       <c r="A184" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C184" t="s">
-        <v>544</v>
+        <v>570</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C185" t="s">
-        <v>545</v>
+        <v>387</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="30">
       <c r="A186" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C186" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C187" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="30">
       <c r="A188" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C188" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C189" t="s">
-        <v>549</v>
+        <v>388</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C190" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C191" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="30">
       <c r="A192" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C192" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="30">
       <c r="A193" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C193" t="s">
-        <v>223</v>
+        <v>577</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C194" t="s">
-        <v>225</v>
+        <v>578</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C195" t="s">
-        <v>553</v>
+        <v>579</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C196" t="s">
-        <v>554</v>
+        <v>580</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C197" t="s">
-        <v>555</v>
+        <v>581</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="30">
       <c r="A198" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C198" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="30">
       <c r="A199" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C199" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="30">
       <c r="A200" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C200" t="s">
-        <v>558</v>
+        <v>584</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="30">
       <c r="A201" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C201" t="s">
-        <v>559</v>
+        <v>585</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C202" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="30">
       <c r="A203" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C203" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="30">
       <c r="A204" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C204" t="s">
-        <v>562</v>
+        <v>588</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C205" t="s">
-        <v>563</v>
+        <v>389</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C206" t="s">
-        <v>564</v>
+        <v>390</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="30">
       <c r="A207" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C207" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="30">
       <c r="A208" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C208" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C209" t="s">
-        <v>241</v>
+        <v>591</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C210" t="s">
-        <v>567</v>
+        <v>592</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="30">
       <c r="A211" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C211" t="s">
-        <v>568</v>
+        <v>593</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C212" t="s">
-        <v>569</v>
+        <v>594</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="30">
       <c r="A213" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C213" t="s">
-        <v>570</v>
+        <v>595</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="30">
       <c r="A214" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C214" t="s">
-        <v>571</v>
+        <v>596</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C215" t="s">
-        <v>572</v>
+        <v>597</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C216" t="s">
-        <v>573</v>
+        <v>598</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="30">
       <c r="A217" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C217" t="s">
-        <v>574</v>
+        <v>599</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="30">
       <c r="A218" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C218" t="s">
-        <v>575</v>
+        <v>600</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C219" t="s">
-        <v>576</v>
+        <v>601</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="30">
       <c r="A220" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C220" t="s">
-        <v>577</v>
+        <v>602</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="30">
       <c r="A221" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C221" t="s">
-        <v>578</v>
+        <v>603</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C222" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="30">
       <c r="A223" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C223" t="s">
-        <v>579</v>
+        <v>604</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="30">
       <c r="A224" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C224" t="s">
-        <v>580</v>
+        <v>605</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="30">
       <c r="A225" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C225" t="s">
-        <v>581</v>
+        <v>606</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="30">
       <c r="A226" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C226" t="s">
-        <v>582</v>
+        <v>607</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="30">
       <c r="A227" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C227" t="s">
-        <v>583</v>
+        <v>608</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C228" t="s">
-        <v>584</v>
+        <v>391</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="30">
       <c r="A229" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C229" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="30">
       <c r="A230" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C230" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5023,150 +5026,150 @@
         <v>20</v>
       </c>
       <c r="C231" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="30">
       <c r="A232" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C232" t="s">
-        <v>265</v>
+        <v>611</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="30">
       <c r="A233" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C233" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="30">
       <c r="A234" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C234" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="30">
       <c r="A235" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C235" t="s">
-        <v>270</v>
+        <v>613</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="30">
       <c r="A236" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C236" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="30">
       <c r="A237" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C237" t="s">
-        <v>273</v>
+        <v>615</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="30">
       <c r="A238" s="3" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C238" t="s">
-        <v>589</v>
+        <v>616</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="30">
       <c r="A239" s="3" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C239" t="s">
-        <v>590</v>
+        <v>617</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="30">
       <c r="A240" s="3" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C240" t="s">
-        <v>591</v>
+        <v>618</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="30">
       <c r="A241" s="3" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C241" t="s">
-        <v>592</v>
+        <v>619</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="3" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C242" t="s">
-        <v>593</v>
+        <v>392</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="3" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C243" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="30">
       <c r="A244" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C244" t="s">
-        <v>594</v>
+        <v>620</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5177,997 +5180,997 @@
         <v>38</v>
       </c>
       <c r="C245" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="3" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C246" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="30">
       <c r="A247" s="3" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C247" t="s">
-        <v>596</v>
+        <v>622</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C248" t="s">
-        <v>597</v>
+        <v>623</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="30">
       <c r="A249" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C249" t="s">
-        <v>598</v>
+        <v>624</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="3" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C250" t="s">
-        <v>286</v>
+        <v>625</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="3" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C251" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C252" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="30">
       <c r="A253" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C253" t="s">
-        <v>601</v>
+        <v>628</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="30">
       <c r="A254" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C254" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="3" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C255" t="s">
-        <v>603</v>
+        <v>393</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="30">
       <c r="A256" s="3" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C256" t="s">
-        <v>604</v>
+        <v>630</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="3" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C257" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C258" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="3" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C259" t="s">
-        <v>606</v>
+        <v>394</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="30">
       <c r="A260" s="3" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C260" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="30">
       <c r="A261" s="3" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C261" t="s">
-        <v>608</v>
+        <v>633</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="3" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C262" t="s">
-        <v>609</v>
+        <v>634</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="3" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C263" t="s">
-        <v>610</v>
+        <v>395</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="30">
       <c r="A264" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C264" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="30">
       <c r="A265" s="3" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C265" t="s">
-        <v>612</v>
+        <v>396</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C266" t="s">
-        <v>613</v>
+        <v>397</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="30">
       <c r="A267" s="3" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C267" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="30">
       <c r="A268" s="3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C268" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="3" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C269" t="s">
-        <v>616</v>
+        <v>398</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="30">
       <c r="A270" s="3" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C270" t="s">
-        <v>617</v>
+        <v>638</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="30">
       <c r="A271" s="3" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C271" t="s">
-        <v>618</v>
+        <v>639</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="3" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C272" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="30">
       <c r="A273" s="3" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C273" t="s">
-        <v>620</v>
+        <v>399</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="30">
       <c r="A274" s="3" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C274" t="s">
-        <v>621</v>
+        <v>641</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C275" t="s">
-        <v>316</v>
+        <v>642</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="30">
       <c r="A276" s="3" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C276" t="s">
-        <v>622</v>
+        <v>643</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="30">
       <c r="A277" s="3" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C277" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="3" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C278" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="30">
       <c r="A279" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C279" t="s">
-        <v>625</v>
+        <v>646</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="30">
       <c r="A280" s="3" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C280" t="s">
-        <v>626</v>
+        <v>647</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="30">
       <c r="A281" s="3" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C281" t="s">
-        <v>627</v>
+        <v>400</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="30">
       <c r="A282" s="3" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C282" t="s">
-        <v>628</v>
+        <v>648</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="30">
       <c r="A283" s="3" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C283" t="s">
-        <v>629</v>
+        <v>649</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="30">
       <c r="A284" s="3" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C284" t="s">
-        <v>630</v>
+        <v>650</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="3" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C285" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="3" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C286" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C287" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="30">
       <c r="A288" s="3" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C288" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="30">
       <c r="A289" s="3" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C289" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="30">
       <c r="A290" s="3" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C290" t="s">
-        <v>636</v>
+        <v>656</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="30">
       <c r="A291" s="3" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C291" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="3" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C292" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="30">
       <c r="A293" s="3" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C293" t="s">
-        <v>639</v>
+        <v>659</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="30">
       <c r="A294" s="3" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C294" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="30">
       <c r="A295" s="3" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C295" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="30">
       <c r="A296" s="3" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C296" t="s">
-        <v>642</v>
+        <v>662</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="30">
       <c r="A297" s="3" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C297" t="s">
-        <v>643</v>
+        <v>663</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="30">
       <c r="A298" s="3" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C298" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="30">
       <c r="A299" s="3" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C299" t="s">
-        <v>645</v>
+        <v>665</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="30">
       <c r="A300" s="3" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C300" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="3" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C301" t="s">
-        <v>647</v>
+        <v>401</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C302" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="30">
       <c r="A303" s="3" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C303" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="30">
       <c r="A304" s="3" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C304" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="30">
       <c r="A305" s="3" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C305" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="30">
       <c r="A306" s="3" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C306" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="30">
       <c r="A307" s="3" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C307" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="30">
       <c r="A308" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C308" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="30">
       <c r="A309" s="3" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C309" t="s">
-        <v>655</v>
+        <v>674</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="30">
       <c r="A310" s="3" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C310" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="30">
       <c r="A311" s="3" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C311" t="s">
-        <v>657</v>
+        <v>676</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="30">
       <c r="A312" s="3" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C312" t="s">
-        <v>657</v>
+        <v>676</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="30">
       <c r="A313" s="3" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C313" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="3" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C314" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="3" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C315" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="3" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C316" t="s">
-        <v>660</v>
+        <v>402</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="30">
       <c r="A317" s="3" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C317" t="s">
-        <v>661</v>
+        <v>403</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="30">
       <c r="A318" s="3" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C318" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="30">
       <c r="A319" s="3" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C319" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="30">
       <c r="A320" s="3" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C320" t="s">
-        <v>664</v>
+        <v>404</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="30">
       <c r="A321" s="3" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C321" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="30">
       <c r="A322" s="3" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C322" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="45">
       <c r="A323" s="3" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C323" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="45">
       <c r="A324" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C324" t="s">
-        <v>620</v>
+        <v>399</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="30">
       <c r="A325" s="3" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C325" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="3" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C326" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="3" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C327" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="3" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C328" t="s">
-        <v>375</v>
+        <v>686</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="3" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C329" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="30">
       <c r="A330" s="3" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B330" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C330" t="s">
         <v>379</v>
-      </c>
-      <c r="C330" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="30">
       <c r="A331" s="3" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C331" t="s">
-        <v>670</v>
+        <v>405</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="30">
       <c r="A332" s="3" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C332" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="4" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C333" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="3" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C334" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="3" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C335" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
